--- a/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
+++ b/REGULAR/ONT/ALCAZAR, ALNEE JOY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>11/22-24,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1392,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1435,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1499,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1559,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1625,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1688,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1786,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1845,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1910,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1953,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2028,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2214,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2280,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2338,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2404,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2460,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2535,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2578,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2644,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2700,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2798,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2861,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,10 +3337,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A57" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3503,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>49.400000000000006</v>
+        <v>58.150000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3507,7 +3513,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4910,7 +4916,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4930,7 +4936,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4950,16 +4956,18 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4968,16 +4976,18 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4986,16 +4996,18 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5004,16 +5016,18 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5022,16 +5036,18 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5040,16 +5056,18 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5058,16 +5076,18 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5076,7 +5096,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5094,7 +5114,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5112,7 +5132,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5130,7 +5150,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5148,7 +5168,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5166,7 +5186,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5184,7 +5204,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5202,7 +5222,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5220,7 +5240,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5923,10 +5943,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6092,7 +6112,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.186</v>
+        <v>23.186</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6995,10 +7015,16 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="39">
+        <v>6</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
@@ -7008,7 +7034,9 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
